--- a/ok-1.xlsx
+++ b/ok-1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="z biblioteki" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="wykresy" sheetId="3" r:id="rId3"/>
     <sheet name="wykresy2" sheetId="4" r:id="rId4"/>
     <sheet name="bier127" sheetId="5" r:id="rId5"/>
+    <sheet name="porównanie z plikiem" sheetId="7" r:id="rId6"/>
+    <sheet name="berlin" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="test" localSheetId="4">bier127!$A$2:$D$76</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="71">
   <si>
     <t>nazwa</t>
   </si>
@@ -197,9 +199,6 @@
     <t>0.74</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>wynik</t>
   </si>
   <si>
@@ -208,13 +207,59 @@
   <si>
     <t>global avg</t>
   </si>
+  <si>
+    <t>tsp350</t>
+  </si>
+  <si>
+    <t>tsp100</t>
+  </si>
+  <si>
+    <t>OPT - 7544</t>
+  </si>
+  <si>
+    <t>nazwa instancji</t>
+  </si>
+  <si>
+    <t>nasz wynik</t>
+  </si>
+  <si>
+    <t>wynik z pliku</t>
+  </si>
+  <si>
+    <t>różnica</t>
+  </si>
+  <si>
+    <t>poprawa avg</t>
+  </si>
+  <si>
+    <t>poprawa best</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -251,7 +296,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +324,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -342,6 +405,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -356,6 +425,38 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t> najlepszego wyniku z wynikiem </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t>algorytmu zachłannego</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -367,18 +468,32 @@
           <c:tx>
             <c:v>ACO best</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>losowe!$B$1:$D$1</c:f>
+              <c:f>losowe!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>tsp100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>tsp250</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>tsp350</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>tsp500</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>tsp1000</c:v>
                 </c:pt>
               </c:strCache>
@@ -386,17 +501,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>losowe!$B$17:$D$17</c:f>
+              <c:f>losowe!$B$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12686</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>7195</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>88592</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>26283</c:v>
                 </c:pt>
               </c:numCache>
@@ -409,51 +530,106 @@
           <c:tx>
             <c:v>Zachłanny</c:v>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>losowe!$B$19:$D$19</c:f>
+              <c:f>losowe!$B$19:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16314</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>9043</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>97875</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>29198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="100401536"/>
-        <c:axId val="100403072"/>
+        <c:axId val="87648896"/>
+        <c:axId val="87663360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100401536"/>
+        <c:axId val="87648896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Nazwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100403072"/>
+        <c:crossAx val="87663360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100403072"/>
+        <c:axId val="87663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100401536"/>
+        <c:crossAx val="87648896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -467,13 +643,456 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t> średniego wyniku z wynikiem </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t>algorytmu zachłannego</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ACO avg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>losowe!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>tsp100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tsp250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tsp350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tsp500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tsp1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>losowe!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Zachłanny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7FD13B"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>losowe!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="89069824"/>
+        <c:axId val="89092480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89069824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Nazwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89092480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89092480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89069824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t> średniego wyniku z wynikiem </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t>algorytmu zachłannego</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>poprawa średnio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>losowe!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19982847341337909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21392668873360304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19562092226031183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3430395913154534E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2163846838824573E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>poprawa najlepszego</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>losowe!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>tsp100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tsp250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>tsp350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>tsp500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>tsp1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>losowe!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19982847341337909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22238568101017531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2043569611854473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4845466155810979E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9835605178436884E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="89117824"/>
+        <c:axId val="89119744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89117824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Nazwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89119744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89119744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89117824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
@@ -498,6 +1117,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -669,51 +1289,615 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="100819328"/>
-        <c:axId val="100820864"/>
+        <c:axId val="89057152"/>
+        <c:axId val="89591808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100819328"/>
+        <c:axId val="89057152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Nazwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100820864"/>
+        <c:crossAx val="89591808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100820864"/>
+        <c:axId val="89591808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100819328"/>
+        <c:crossAx val="89057152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wyniku najlepszego i średniego z wartością optymalną</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OPT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykresy!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bier127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pr439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pr1002</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykresy!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>259045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ACO best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykresy!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bier127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pr439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pr1002</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykresy!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>293725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ACO avg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykresy!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>bier127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pr439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pr1002</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykresy!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>119220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="89622784"/>
+        <c:axId val="89633152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89622784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Nazwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89633152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89633152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89622784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wyniku najlepszego i średniego z wartością optymalną</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15102883911416706"/>
+          <c:y val="1.7945925518266941E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OPT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykresy!$B$10:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>eil51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eil76</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykresy!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ACO best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykresy!$B$10:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>eil51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eil76</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykresy!$B$13:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ACO avg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>wykresy!$B$10:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>eil51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>eil76</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>wykresy!$B$14:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>431.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>548.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="89647744"/>
+        <c:axId val="90993408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="89647744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Nazwy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+                  <a:t> instancji</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90993408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90993408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1100"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89647744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pl-PL"/>
   <c:chart>
@@ -738,6 +1922,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -751,6 +1936,9 @@
             <c:v>Błąd najlepszego</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
@@ -807,7 +1995,7 @@
                   <c:v>9.6390187478914653E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1088246732385314E-3</c:v>
+                  <c:v>4.7344481831555096E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.7604286261002678E-3</c:v>
@@ -835,6 +2023,9 @@
             <c:v>Błąd średniej</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln w="28575">
               <a:noFill/>
             </a:ln>
@@ -882,7 +2073,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0630965005302202E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0260223048327097E-2</c:v>
@@ -891,7 +2082,7 @@
                   <c:v>5.2050701238613908E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5076342976953632E-3</c:v>
+                  <c:v>7.9302007067854792E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.3654802908534224E-2</c:v>
@@ -912,11 +2103,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="100854400"/>
-        <c:axId val="100889344"/>
+        <c:axId val="89704320"/>
+        <c:axId val="91426816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100854400"/>
+        <c:axId val="89704320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,17 +2128,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100889344"/>
+        <c:crossAx val="91426816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100889344"/>
+        <c:axId val="91426816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,22 +2161,626 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100854400"/>
+        <c:crossAx val="89704320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400"/>
+              <a:t>Wpływ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" baseline="0"/>
+              <a:t> parametru Beta na wynik</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ACO best</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bier127!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bier127!$N$2:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>120078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118683</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>119326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118892</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119620</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ACO avg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bier127!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bier127!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>121994.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120227.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121627.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120771.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120193.60000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120073.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120691.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120711.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>119711.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121319.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120343.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>OPT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bier127!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bier127!$P$2:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="91461888"/>
+        <c:axId val="91472256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91461888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Beta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91472256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91472256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wyniki</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91461888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="pl-PL"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Struktura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> wyników dla berlin52 w 10 próbach</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7945</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>berlin!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT - 7544</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>berlin!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OPT</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>berlin!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT - 7544</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>berlin!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -994,16 +2790,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1022,6 +2818,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1029,14 +2885,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -1052,6 +2908,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240506</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>373856</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1095,6 +3011,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -1102,7 +3088,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Metro">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1110,34 +3096,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="4E5B6F"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="D6ECFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="7FD13B"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA157A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FEB80A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="00ADDC"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="738AC8"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="1AB39F"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="EB8803"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="5F7791"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
@@ -1384,10 +3370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1564,7 +3550,7 @@
         <v>429</v>
       </c>
       <c r="C6" s="10">
-        <v>7945</v>
+        <v>7544</v>
       </c>
       <c r="D6" s="10">
         <v>554</v>
@@ -1573,7 +3559,7 @@
         <v>20751</v>
       </c>
       <c r="F6" s="10">
-        <v>118914</v>
+        <v>119090</v>
       </c>
       <c r="G6" s="10">
         <v>26419</v>
@@ -1612,7 +3598,7 @@
         <v>21015</v>
       </c>
       <c r="F7" s="10">
-        <v>119045</v>
+        <v>118338</v>
       </c>
       <c r="G7" s="10">
         <v>26389</v>
@@ -1628,6 +3614,9 @@
       </c>
       <c r="K7" s="10">
         <v>302384</v>
+      </c>
+      <c r="L7" s="23">
+        <v>284791</v>
       </c>
       <c r="N7" s="14"/>
     </row>
@@ -1639,7 +3628,7 @@
         <v>432</v>
       </c>
       <c r="C8" s="10">
-        <v>7945</v>
+        <v>7544</v>
       </c>
       <c r="D8" s="10">
         <v>550</v>
@@ -1648,7 +3637,7 @@
         <v>20931</v>
       </c>
       <c r="F8" s="10">
-        <v>119512</v>
+        <v>120136</v>
       </c>
       <c r="G8" s="10">
         <v>26456</v>
@@ -1664,6 +3653,10 @@
       </c>
       <c r="K8" s="10">
         <v>301787</v>
+      </c>
+      <c r="L8" s="24">
+        <f>(L7-K4)/K4</f>
+        <v>9.938813719624004E-2</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -1684,7 +3677,7 @@
         <v>20819</v>
       </c>
       <c r="F9" s="10">
-        <v>119639</v>
+        <v>119385</v>
       </c>
       <c r="G9" s="10">
         <v>26684</v>
@@ -1720,7 +3713,7 @@
         <v>20751</v>
       </c>
       <c r="F10" s="10">
-        <v>120189</v>
+        <v>119328</v>
       </c>
       <c r="G10" s="10">
         <v>26658</v>
@@ -1756,7 +3749,7 @@
         <v>20921</v>
       </c>
       <c r="F11" s="10">
-        <v>118871</v>
+        <v>118817</v>
       </c>
       <c r="G11" s="10">
         <v>26590</v>
@@ -1792,7 +3785,7 @@
         <v>20770</v>
       </c>
       <c r="F12" s="10">
-        <v>119794</v>
+        <v>118953</v>
       </c>
       <c r="G12" s="10">
         <v>26834</v>
@@ -1828,7 +3821,7 @@
         <v>20770</v>
       </c>
       <c r="F13" s="10">
-        <v>119106</v>
+        <v>119545</v>
       </c>
       <c r="G13" s="10">
         <v>26176</v>
@@ -1864,7 +3857,7 @@
         <v>20966</v>
       </c>
       <c r="F14" s="10">
-        <v>119045</v>
+        <v>118814</v>
       </c>
       <c r="G14" s="10">
         <v>26220</v>
@@ -1900,7 +3893,7 @@
         <v>20876</v>
       </c>
       <c r="F15" s="10">
-        <v>118768</v>
+        <v>119794</v>
       </c>
       <c r="G15" s="10">
         <v>26442</v>
@@ -1941,7 +3934,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>118768</v>
+        <v>118338</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -1974,7 +3967,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>7624.2</v>
+        <v>7544</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
@@ -1986,7 +3979,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>119288.3</v>
+        <v>119220</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
@@ -2031,7 +4024,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="2"/>
-        <v>4.1088246732385314E-3</v>
+        <v>4.7344481831555096E-4</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="2"/>
@@ -2064,7 +4057,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="3"/>
-        <v>1.0630965005302202E-2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
@@ -2076,7 +4069,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>8.5076342976953632E-3</v>
+        <v>7.9302007067854792E-3</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
@@ -2120,6 +4113,9 @@
       <c r="E22">
         <v>0.75</v>
       </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
@@ -2136,6 +4132,9 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
@@ -2143,6 +4142,38 @@
       </c>
       <c r="D25" t="s">
         <v>27</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2153,252 +4184,408 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="2" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
         <v>250</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
+        <v>350</v>
+      </c>
+      <c r="E2" s="3">
         <v>500</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="3">
         <v>550</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>300</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
+        <v>300</v>
+      </c>
+      <c r="F3" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>12883</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>89946</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4">
         <v>25339</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="9">
+        <v>933</v>
+      </c>
+      <c r="C6" s="9">
         <v>13094</v>
       </c>
-      <c r="C6" s="9">
+      <c r="D6" s="9">
+        <v>7272</v>
+      </c>
+      <c r="E6" s="9">
         <v>90829</v>
       </c>
-      <c r="D6" s="9">
+      <c r="F6" s="9">
         <v>26459</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="9">
+        <v>933</v>
+      </c>
+      <c r="C7" s="9">
         <v>12686</v>
       </c>
-      <c r="C7" s="9">
+      <c r="D7" s="9">
+        <v>7352</v>
+      </c>
+      <c r="E7" s="9">
         <v>92186</v>
       </c>
-      <c r="D7" s="9">
+      <c r="F7" s="9">
         <v>26425</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="9">
+        <v>933</v>
+      </c>
+      <c r="C8" s="9">
         <v>12817</v>
       </c>
-      <c r="C8" s="9">
+      <c r="D8" s="9">
+        <v>7294</v>
+      </c>
+      <c r="E8" s="9">
         <v>90605</v>
       </c>
-      <c r="D8" s="9">
+      <c r="F8" s="9">
         <v>26415</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="9">
+        <v>933</v>
+      </c>
+      <c r="C9" s="9">
         <v>12720</v>
       </c>
-      <c r="C9" s="9">
+      <c r="D9" s="9">
+        <v>7240</v>
+      </c>
+      <c r="E9" s="9">
         <v>92039</v>
       </c>
-      <c r="D9" s="9">
+      <c r="F9" s="9">
         <v>26283</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="9">
+        <v>933</v>
+      </c>
+      <c r="C10" s="9">
         <v>12946</v>
       </c>
-      <c r="C10" s="9">
+      <c r="D10" s="9">
+        <v>7395</v>
+      </c>
+      <c r="E10" s="9">
         <v>88592</v>
       </c>
-      <c r="D10" s="9">
+      <c r="F10" s="9">
         <v>26344</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="9">
+        <v>933</v>
+      </c>
+      <c r="C11" s="9">
         <v>12792</v>
       </c>
-      <c r="C11" s="9">
+      <c r="D11" s="9">
+        <v>7195</v>
+      </c>
+      <c r="E11" s="9">
         <v>90464</v>
       </c>
-      <c r="D11" s="9">
+      <c r="F11" s="9">
         <v>26576</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="9">
+        <v>933</v>
+      </c>
+      <c r="C12" s="9">
         <v>12817</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D12" s="9">
+        <v>7211</v>
+      </c>
+      <c r="E12" s="9">
         <v>90715</v>
       </c>
-      <c r="D12" s="9">
+      <c r="F12" s="9">
         <v>26422</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="9">
+        <v>933</v>
+      </c>
+      <c r="C13" s="9">
         <v>12764</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D13" s="9">
+        <v>7234</v>
+      </c>
+      <c r="E13" s="9">
         <v>90932</v>
       </c>
-      <c r="D13" s="9">
+      <c r="F13" s="9">
         <v>26489</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="9">
+        <v>933</v>
+      </c>
+      <c r="C14" s="9">
         <v>12878</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
+        <v>7311</v>
+      </c>
+      <c r="E14" s="9">
         <v>91611</v>
       </c>
-      <c r="D14" s="9">
+      <c r="F14" s="9">
         <v>26751</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="9">
+        <v>933</v>
+      </c>
+      <c r="C15" s="9">
         <v>12728</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="9">
+        <v>7240</v>
+      </c>
+      <c r="E15" s="9">
         <v>88914</v>
       </c>
-      <c r="D15" s="9">
+      <c r="F15" s="9">
         <v>26907</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
         <f>MIN(B6:B15)</f>
-        <v>12686</v>
+        <v>933</v>
       </c>
       <c r="C17" s="3">
         <f>MIN(C6:C15)</f>
-        <v>88592</v>
+        <v>12686</v>
       </c>
       <c r="D17" s="3">
         <f>MIN(D6:D15)</f>
+        <v>7195</v>
+      </c>
+      <c r="E17" s="3">
+        <f>MIN(E6:E15)</f>
+        <v>88592</v>
+      </c>
+      <c r="F17" s="3">
+        <f>MIN(F6:F15)</f>
         <v>26283</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <f>AVERAGE(B6:B15)</f>
-        <v>12824.2</v>
+        <f>INT(AVERAGE(B6:B15))</f>
+        <v>933</v>
       </c>
       <c r="C18" s="3">
-        <f>AVERAGE(C6:C15)</f>
-        <v>90688.7</v>
+        <f>INT(AVERAGE(C6:C15))</f>
+        <v>12824</v>
       </c>
       <c r="D18" s="3">
-        <f>AVERAGE(D6:D15)</f>
-        <v>26507.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <f t="shared" ref="D18:F18" si="0">INT(AVERAGE(D6:D15))</f>
+        <v>7274</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>90688</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>26507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="5">
+        <v>1166</v>
+      </c>
+      <c r="C19" s="5">
         <v>16314</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="5">
+        <v>9043</v>
+      </c>
+      <c r="E19" s="3">
         <v>97875</v>
       </c>
-      <c r="D19" s="3">
+      <c r="F19" s="3">
         <v>29198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="22">
+        <f>(B19-B17)/B19</f>
+        <v>0.19982847341337909</v>
+      </c>
+      <c r="C20" s="22">
+        <f t="shared" ref="C20:F20" si="1">(C19-C17)/C19</f>
+        <v>0.22238568101017531</v>
+      </c>
+      <c r="D20" s="22">
+        <f t="shared" si="1"/>
+        <v>0.2043569611854473</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="1"/>
+        <v>9.4845466155810979E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="1"/>
+        <v>9.9835605178436884E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="22">
+        <f>(B19-B18)/B19</f>
+        <v>0.19982847341337909</v>
+      </c>
+      <c r="C21" s="22">
+        <f t="shared" ref="C21:F21" si="2">(C19-C18)/C19</f>
+        <v>0.21392668873360304</v>
+      </c>
+      <c r="D21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.19562092226031183</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="2"/>
+        <v>7.3430395913154534E-2</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="2"/>
+        <v>9.2163846838824573E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2411,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="J6" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2544,7 +4731,7 @@
       </c>
       <c r="F5" s="16">
         <f>'z biblioteki'!F17</f>
-        <v>118768</v>
+        <v>118338</v>
       </c>
       <c r="G5" s="16">
         <f>'z biblioteki'!G17</f>
@@ -2577,7 +4764,7 @@
       </c>
       <c r="C6" s="3">
         <f>'z biblioteki'!C18</f>
-        <v>7624.2</v>
+        <v>7544</v>
       </c>
       <c r="D6" s="3">
         <f>'z biblioteki'!D18</f>
@@ -2589,7 +4776,7 @@
       </c>
       <c r="F6" s="3">
         <f>'z biblioteki'!F18</f>
-        <v>119288.3</v>
+        <v>119220</v>
       </c>
       <c r="G6" s="3">
         <f>'z biblioteki'!G18</f>
@@ -2651,7 +4838,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:D14" si="0">A2</f>
+        <f t="shared" ref="A10:B14" si="0">A2</f>
         <v>nazwa</v>
       </c>
       <c r="B10" t="str">
@@ -2659,12 +4846,12 @@
         <v>eil51</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f>D2</f>
+        <v>eil76</v>
+      </c>
+      <c r="D10" t="str">
+        <f>C2</f>
         <v>berlin52</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>eil76</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2677,12 +4864,12 @@
         <v>51</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>D3</f>
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <f>C3</f>
         <v>52</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2695,12 +4882,12 @@
         <v>426</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>D4</f>
+        <v>538</v>
+      </c>
+      <c r="D12">
+        <f>C4</f>
         <v>7544</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2713,12 +4900,12 @@
         <v>429</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>D5</f>
+        <v>545</v>
+      </c>
+      <c r="D13">
+        <f>C5</f>
         <v>7544</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2731,12 +4918,12 @@
         <v>431.4</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>7624.2</v>
+        <f>D6</f>
+        <v>548.9</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>548.9</v>
+        <f>C6</f>
+        <v>7544</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2919,7 +5106,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="7"/>
-        <v>118768</v>
+        <v>118338</v>
       </c>
       <c r="C27">
         <f t="shared" ref="C27:D27" si="10">J5</f>
@@ -2937,7 +5124,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="7"/>
-        <v>119288.3</v>
+        <v>119220</v>
       </c>
       <c r="C28">
         <f t="shared" ref="C28:D28" si="11">J6</f>
@@ -2959,7 +5146,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3059,7 +5246,7 @@
       </c>
       <c r="F3" s="18">
         <f>'z biblioteki'!F19</f>
-        <v>4.1088246732385314E-3</v>
+        <v>4.7344481831555096E-4</v>
       </c>
       <c r="G3" s="18">
         <f>'z biblioteki'!G19</f>
@@ -3092,7 +5279,7 @@
       </c>
       <c r="C4" s="18">
         <f>'z biblioteki'!C20</f>
-        <v>1.0630965005302202E-2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
         <f>'z biblioteki'!D20</f>
@@ -3104,7 +5291,7 @@
       </c>
       <c r="F4" s="18">
         <f>'z biblioteki'!F20</f>
-        <v>8.5076342976953632E-3</v>
+        <v>7.9302007067854792E-3</v>
       </c>
       <c r="G4" s="18">
         <f>'z biblioteki'!G20</f>
@@ -3135,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3148,20 +5335,21 @@
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -3169,8 +5357,35 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3191,8 +5406,37 @@
         <f>MIN(D2:D6)</f>
         <v>119450</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>121964</v>
+      </c>
+      <c r="J2">
+        <v>123576</v>
+      </c>
+      <c r="K2">
+        <v>120078</v>
+      </c>
+      <c r="L2">
+        <v>122296</v>
+      </c>
+      <c r="M2">
+        <v>122060</v>
+      </c>
+      <c r="N2">
+        <f>MIN(I2:M2)</f>
+        <v>120078</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:M2)</f>
+        <v>121994.8</v>
+      </c>
+      <c r="P2">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -3205,8 +5449,37 @@
       <c r="D3">
         <v>121049</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+      <c r="I3">
+        <v>120619</v>
+      </c>
+      <c r="J3">
+        <v>120082</v>
+      </c>
+      <c r="K3">
+        <v>119911</v>
+      </c>
+      <c r="L3">
+        <v>119912</v>
+      </c>
+      <c r="M3">
+        <v>120612</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N15" si="0">MIN(I3:M3)</f>
+        <v>119911</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O16" si="1">AVERAGE(I3:M3)</f>
+        <v>120227.2</v>
+      </c>
+      <c r="P3">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3219,8 +5492,37 @@
       <c r="D4">
         <v>119450</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>121052</v>
+      </c>
+      <c r="J4">
+        <v>120000</v>
+      </c>
+      <c r="K4">
+        <v>122028</v>
+      </c>
+      <c r="L4">
+        <v>119591</v>
+      </c>
+      <c r="M4">
+        <v>125466</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>119591</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>121627.4</v>
+      </c>
+      <c r="P4">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3233,8 +5535,37 @@
       <c r="D5">
         <v>120607</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5">
+        <v>2.5</v>
+      </c>
+      <c r="I5">
+        <v>121228</v>
+      </c>
+      <c r="J5">
+        <v>120866</v>
+      </c>
+      <c r="K5">
+        <v>121128</v>
+      </c>
+      <c r="L5">
+        <v>120203</v>
+      </c>
+      <c r="M5">
+        <v>119785</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>119785</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>120642</v>
+      </c>
+      <c r="P5">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -3247,8 +5578,37 @@
       <c r="D6">
         <v>120791</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>120521</v>
+      </c>
+      <c r="J6">
+        <v>118772</v>
+      </c>
+      <c r="K6">
+        <v>122013</v>
+      </c>
+      <c r="L6">
+        <v>119922</v>
+      </c>
+      <c r="M6">
+        <v>122629</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>118772</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>120771.4</v>
+      </c>
+      <c r="P6">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3262,15 +5622,44 @@
         <v>119415</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E3:E66" si="0">AVERAGE(D7:D11)</f>
+        <f t="shared" ref="E7:E62" si="2">AVERAGE(D7:D11)</f>
         <v>120048.6</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F3:F66" si="1">MIN(D7:D11)</f>
+        <f t="shared" ref="F7:F62" si="3">MIN(D7:D11)</f>
         <v>119415</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7">
+        <v>3.5</v>
+      </c>
+      <c r="I7">
+        <v>119579</v>
+      </c>
+      <c r="J7">
+        <v>119782</v>
+      </c>
+      <c r="K7">
+        <v>119106</v>
+      </c>
+      <c r="L7">
+        <v>122119</v>
+      </c>
+      <c r="M7">
+        <v>120382</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>119106</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>120193.60000000001</v>
+      </c>
+      <c r="P7">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -3283,8 +5672,37 @@
       <c r="D8">
         <v>120518</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>120774</v>
+      </c>
+      <c r="J8">
+        <v>118935</v>
+      </c>
+      <c r="K8">
+        <v>119045</v>
+      </c>
+      <c r="L8">
+        <v>120188</v>
+      </c>
+      <c r="M8">
+        <v>120178</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>118935</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>119824</v>
+      </c>
+      <c r="P8">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3297,8 +5715,37 @@
       <c r="D9">
         <v>119600</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9">
+        <v>4.5</v>
+      </c>
+      <c r="I9">
+        <v>120143</v>
+      </c>
+      <c r="J9">
+        <v>120916</v>
+      </c>
+      <c r="K9">
+        <v>120066</v>
+      </c>
+      <c r="L9">
+        <v>119045</v>
+      </c>
+      <c r="M9">
+        <v>119115</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>119045</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>119857</v>
+      </c>
+      <c r="P9">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3311,8 +5758,37 @@
       <c r="D10">
         <v>120636</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>119196</v>
+      </c>
+      <c r="J10">
+        <v>122840</v>
+      </c>
+      <c r="K10">
+        <v>119858</v>
+      </c>
+      <c r="L10">
+        <v>119223</v>
+      </c>
+      <c r="M10">
+        <v>120413</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>119196</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>120306</v>
+      </c>
+      <c r="P10">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3325,8 +5801,37 @@
       <c r="D11">
         <v>120074</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11">
+        <v>5.5</v>
+      </c>
+      <c r="I11">
+        <v>119410</v>
+      </c>
+      <c r="J11">
+        <v>120120</v>
+      </c>
+      <c r="K11">
+        <v>118683</v>
+      </c>
+      <c r="L11">
+        <v>120334</v>
+      </c>
+      <c r="M11">
+        <v>121822</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>118683</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>120073.8</v>
+      </c>
+      <c r="P11">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -3340,15 +5845,44 @@
         <v>120705</v>
       </c>
       <c r="E12">
+        <f t="shared" si="2"/>
+        <v>120349</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>120065</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>119728</v>
+      </c>
+      <c r="J12">
+        <v>120836</v>
+      </c>
+      <c r="K12">
+        <v>120117</v>
+      </c>
+      <c r="L12">
+        <v>121611</v>
+      </c>
+      <c r="M12">
+        <v>121165</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="0"/>
-        <v>120349</v>
-      </c>
-      <c r="F12">
+        <v>119728</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="1"/>
-        <v>120065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>120691.4</v>
+      </c>
+      <c r="P12">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -3361,8 +5895,37 @@
       <c r="D13">
         <v>120332</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13">
+        <v>6.5</v>
+      </c>
+      <c r="I13">
+        <v>121266</v>
+      </c>
+      <c r="J13">
+        <v>120890</v>
+      </c>
+      <c r="K13">
+        <v>120384</v>
+      </c>
+      <c r="L13">
+        <v>119326</v>
+      </c>
+      <c r="M13">
+        <v>121690</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>119326</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>120711.2</v>
+      </c>
+      <c r="P13">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3375,8 +5938,37 @@
       <c r="D14">
         <v>120443</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>120242</v>
+      </c>
+      <c r="J14">
+        <v>119115</v>
+      </c>
+      <c r="K14">
+        <v>119927</v>
+      </c>
+      <c r="L14">
+        <v>120383</v>
+      </c>
+      <c r="M14">
+        <v>118892</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>118892</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>119711.8</v>
+      </c>
+      <c r="P14">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3389,8 +5981,37 @@
       <c r="D15">
         <v>120200</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15">
+        <v>7.5</v>
+      </c>
+      <c r="I15">
+        <v>124091</v>
+      </c>
+      <c r="J15">
+        <v>119620</v>
+      </c>
+      <c r="K15">
+        <v>121771</v>
+      </c>
+      <c r="L15">
+        <v>119868</v>
+      </c>
+      <c r="M15">
+        <v>121246</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>119620</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>121319.2</v>
+      </c>
+      <c r="P15">
+        <v>118282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -3402,6 +6023,35 @@
       </c>
       <c r="D16">
         <v>120065</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>121583</v>
+      </c>
+      <c r="J16">
+        <v>120737</v>
+      </c>
+      <c r="K16">
+        <v>119215</v>
+      </c>
+      <c r="L16">
+        <v>120587</v>
+      </c>
+      <c r="M16">
+        <v>119594</v>
+      </c>
+      <c r="N16">
+        <f>MIN(I16:M16)</f>
+        <v>119215</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>120343.2</v>
+      </c>
+      <c r="P16">
+        <v>118282</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3418,11 +6068,11 @@
         <v>120086</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120358</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119177</v>
       </c>
     </row>
@@ -3496,11 +6146,11 @@
         <v>120576</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121488.6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120071</v>
       </c>
     </row>
@@ -3578,7 +6228,7 @@
         <v>121791</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119003</v>
       </c>
     </row>
@@ -3652,11 +6302,11 @@
         <v>121843</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120852</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119738</v>
       </c>
     </row>
@@ -3730,11 +6380,11 @@
         <v>119405</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>119786.6</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119405</v>
       </c>
     </row>
@@ -3808,11 +6458,11 @@
         <v>120294</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120455</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119167</v>
       </c>
     </row>
@@ -3886,11 +6536,11 @@
         <v>121200</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121161.8</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120514</v>
       </c>
     </row>
@@ -3964,11 +6614,11 @@
         <v>120754</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120736.6</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120211</v>
       </c>
     </row>
@@ -4042,11 +6692,11 @@
         <v>120086</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120225</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119817</v>
       </c>
     </row>
@@ -4120,11 +6770,11 @@
         <v>122990</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>121297.8</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120067</v>
       </c>
     </row>
@@ -4198,11 +6848,11 @@
         <v>120315</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E76" si="2">AVERAGE(D67:D71)</f>
+        <f t="shared" ref="E67:E72" si="4">AVERAGE(D67:D71)</f>
         <v>119999</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F76" si="3">MIN(D67:D71)</f>
+        <f t="shared" ref="F67:F72" si="5">MIN(D67:D71)</f>
         <v>119194</v>
       </c>
     </row>
@@ -4276,11 +6926,11 @@
         <v>120506</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120784</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>119463</v>
       </c>
     </row>
@@ -4342,10 +6992,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="E77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4366,5 +7016,230 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7544</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7544</v>
+      </c>
+      <c r="E3" s="19">
+        <f>(D3-C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>119018</v>
+      </c>
+      <c r="D4" s="3">
+        <v>118338</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" ref="E4:E7" si="0">(D4-C4)</f>
+        <v>-680</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12883</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12686</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="0"/>
+        <v>-197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>89946</v>
+      </c>
+      <c r="D6" s="3">
+        <v>88592</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>-1354</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25339</v>
+      </c>
+      <c r="D7" s="3">
+        <v>26283</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>7945</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>7544</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>7544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>7624.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>1.0630965005302202E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>